--- a/utils/cleaners/bot/eliminados/Eliminados_directivos.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_directivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
@@ -1485,29 +1485,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>123</v>
+        <v>22467154</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Soltero/a</t>
+          <t>Casado/a - En unión libre</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Coordinador/a de área</t>
+          <t>Rector/a</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1527,45 +1527,41 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>No sé qué es el pensamiento computacional.</t>
+          <t>Importante para todas las áreas y niveles</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ni </t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Kwke</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Mayor enfoque en los aspectos tecnológicos y de sistemas, que  en los aspectos informáticos. </t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1615,7 +1611,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1623,23 +1619,19 @@
           <t>Sí</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Fkdr</t>
-        </is>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Observación de aula, Mentoría, Autoestudio, Investigación-Acción, Ninguna de las anteriores</t>
+          <t xml:space="preserve">Promover los espacios de formación </t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>Nunca</t>
+          <t>Siempre</t>
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
@@ -1647,13 +1639,13 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>1029</v>
+        <v>1567</v>
       </c>
       <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
@@ -1667,10 +1659,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12905284</v>
+        <v>123</v>
       </c>
       <c r="F10" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1684,7 +1676,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Casado/a - En unión libre</t>
+          <t>Soltero/a</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1699,7 +1691,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Rector/a</t>
+          <t>Coordinador/a de área</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1709,26 +1701,26 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1737,22 +1729,22 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Informarica basica</t>
+          <t xml:space="preserve">Ni </t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Preguntas pertinentes al proyecto</t>
+          <t>Kwke</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1762,7 +1754,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1787,7 +1779,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1797,31 +1789,31 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>Toda las conunicaciones a traves de los dispositivos requieren de conocimientos cimputacuonales.</t>
+          <t>Fkdr</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Mentoría</t>
+          <t>Observación de aula, Mentoría, Autoestudio, Investigación-Acción, Ninguna de las anteriores</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>A veces</t>
+          <t>Nunca</t>
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
@@ -1829,18 +1821,18 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>700</v>
+        <v>1029</v>
       </c>
       <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05/02</t>
+          <t>28/04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1849,14 +1841,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21013552</v>
+        <v>12905284</v>
       </c>
       <c r="F11" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Femenino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1866,22 +1858,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Separado/a - Divorciado/a</t>
+          <t>Casado/a - En unión libre</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No STEM</t>
+          <t>STEM</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Directivo/a docente</t>
+          <t>Rector/a</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1891,50 +1883,50 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
         <v>5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Importante para todas las áreas y niveles</t>
+          <t>No sé qué es el pensamiento computacional.</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manejo, conocer sus partes y función, uso de programas y redes, la importancia. </t>
+          <t>Informarica basica</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>No hubiera pensado en el pensamiento computacional</t>
+          <t>Preguntas pertinentes al proyecto</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1944,7 +1936,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1969,7 +1961,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -1984,97 +1976,225 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>Me refiero a niños de 4 a 8 años únicamente</t>
+          <t>Toda las conunicaciones a traves de los dispositivos requieren de conocimientos cimputacuonales.</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Observación de aula, Plan de estudios</t>
+          <t>Mentoría</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>Siempre</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr"/>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
       <c r="AN11" t="inlineStr">
         <is>
           <t>Cédula de ciudadanía</t>
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>496</v>
+        <v>700</v>
       </c>
       <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>05/04</t>
+          <t>05/02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>21013552</v>
+      </c>
+      <c r="F12" t="n">
+        <v>66</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Separado/a - Divorciado/a</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manejo, conocer sus partes y función, uso de programas y redes, la importancia. </t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No hubiera pensado en el pensamiento computacional</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Me refiero a niños de 4 a 8 años únicamente</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Observación de aula, Plan de estudios</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
+        <v>496</v>
+      </c>
       <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05/09</t>
+          <t>05/04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2123,12 +2243,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05/10</t>
+          <t>05/09</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2177,12 +2297,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>485</v>
+        <v>392</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13/05</t>
+          <t>05/10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2229,6 +2349,236 @@
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>485</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13/05</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>677</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>06/06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3046440334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>47</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No STEM</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Coordinador/a de área</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Importante para todas las áreas y niveles</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>ofimática, programación y bases de datos</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Observación de aula, Autoestudio, Investigación-Acción</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Siempre</t>
+        </is>
+      </c>
+      <c r="AM17" t="n">
+        <v>76</v>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>celular</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
+        <v>671</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/cleaners/bot/eliminados/Eliminados_directivos.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_directivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5327,6 +5327,190 @@
         <v>51</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>691</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22/07</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1341</v>
+      </c>
+      <c r="F34" t="n">
+        <v>34</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Soltero/a</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Directivo/a docente</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>34</v>
+      </c>
+      <c r="P34" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>34</v>
+      </c>
+      <c r="R34" t="n">
+        <v>34343</v>
+      </c>
+      <c r="S34" t="n">
+        <v>34</v>
+      </c>
+      <c r="T34" t="n">
+        <v>343</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>No sé qué es el pensamiento computacional.</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>sdadsf</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>asdfads</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gyuuyy</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Autoestudio</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>A veces</t>
+        </is>
+      </c>
+      <c r="AM34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>Cédula de ciudadanía</t>
+        </is>
+      </c>
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
